--- a/ReadDataFromExcel/MTN_Random.xlsx
+++ b/ReadDataFromExcel/MTN_Random.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1365">
   <si>
     <t>Firstname</t>
   </si>
@@ -4009,6 +4009,111 @@
   </si>
   <si>
     <t>testAlt3350@yopmail.com</t>
+  </si>
+  <si>
+    <t>fnamexQeS</t>
+  </si>
+  <si>
+    <t>mnameMURB</t>
+  </si>
+  <si>
+    <t>lnameEshJ</t>
+  </si>
+  <si>
+    <t>test80554@yopmail.com</t>
+  </si>
+  <si>
+    <t>28/06/1961</t>
+  </si>
+  <si>
+    <t>2995587281</t>
+  </si>
+  <si>
+    <t>testAlt0447@yopmail.com</t>
+  </si>
+  <si>
+    <t>fnameuQmz</t>
+  </si>
+  <si>
+    <t>mnameIHFv</t>
+  </si>
+  <si>
+    <t>lnameuaeW</t>
+  </si>
+  <si>
+    <t>test42182@yopmail.com</t>
+  </si>
+  <si>
+    <t>04/03/1968</t>
+  </si>
+  <si>
+    <t>5541982014</t>
+  </si>
+  <si>
+    <t>testAlt5392@yopmail.com</t>
+  </si>
+  <si>
+    <t>fnameFuCd</t>
+  </si>
+  <si>
+    <t>mnamedXAb</t>
+  </si>
+  <si>
+    <t>lnamepptU</t>
+  </si>
+  <si>
+    <t>test89760@yopmail.com</t>
+  </si>
+  <si>
+    <t>23/03/1964</t>
+  </si>
+  <si>
+    <t>5120607041</t>
+  </si>
+  <si>
+    <t>testAlt2626@yopmail.com</t>
+  </si>
+  <si>
+    <t>fnameCnVZ</t>
+  </si>
+  <si>
+    <t>mnameZmMg</t>
+  </si>
+  <si>
+    <t>lnameeVyP</t>
+  </si>
+  <si>
+    <t>test62492@yopmail.com</t>
+  </si>
+  <si>
+    <t>14/11/1982</t>
+  </si>
+  <si>
+    <t>3656738056</t>
+  </si>
+  <si>
+    <t>testAlt0125@yopmail.com</t>
+  </si>
+  <si>
+    <t>fnameJZPB</t>
+  </si>
+  <si>
+    <t>mnameygHA</t>
+  </si>
+  <si>
+    <t>lnameDoCa</t>
+  </si>
+  <si>
+    <t>test44332@yopmail.com</t>
+  </si>
+  <si>
+    <t>25/01/1966</t>
+  </si>
+  <si>
+    <t>5987784429</t>
+  </si>
+  <si>
+    <t>testAlt6286@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -4510,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1323</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4518,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1324</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4526,7 +4631,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1325</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4534,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1326</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,7 +4647,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1327</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4550,7 +4655,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1328</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4558,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1329</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
